--- a/artfynd/A 38913-2023 artfynd.xlsx
+++ b/artfynd/A 38913-2023 artfynd.xlsx
@@ -915,7 +915,7 @@
         <v>130787139</v>
       </c>
       <c r="B4" t="n">
-        <v>98947</v>
+        <v>98951</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
